--- a/Dashboard_xbox.xlsx
+++ b/Dashboard_xbox.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jun\Curso_Klabin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10000001_{F472A5F0-44D2-4952-8248-C802D00D20DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10000001_{9561488C-9C6A-4C71-8FD8-9609830B578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39585" yWindow="0" windowWidth="19410" windowHeight="15585" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{D4A812B1-66AE-4820-B6B0-849ADFDF2864}"/>
+    <workbookView xWindow="20385" yWindow="0" windowWidth="19410" windowHeight="15585" tabRatio="454" firstSheet="1" activeTab="3" xr2:uid="{D4A812B1-66AE-4820-B6B0-849ADFDF2864}"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Bases" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Cálculos" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Bases" sheetId="2" r:id="rId2"/>
+    <sheet name="Cálculos" sheetId="3" r:id="rId3"/>
     <sheet name="Dashboard" sheetId="4" r:id="rId4"/>
     <sheet name="Extras" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
@@ -10086,7 +10086,7 @@
                 <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t> SUBSCRIPTONS XBOX GAME PASS</a:t>
+              <a:t> SUBSCRIPTONS - AUTO RENEWAL</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR" sz="1200" b="1">
               <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
@@ -18065,7 +18065,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="20">
+  <chartFormats count="10">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -18152,96 +18152,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="27" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="28" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="29" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -19652,7 +19562,7 @@
   <dimension ref="A1:M296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32106,7 +32016,7 @@
   <dimension ref="A1:Z90"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
